--- a/data/LCOE_Parameters.xlsb.xlsx
+++ b/data/LCOE_Parameters.xlsb.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanko\Desktop\personal\coding\OPV_SBSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB667F4-60F5-47F0-A505-7D327E4DB35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6AC944-5010-4D18-823D-CA8BD7F91FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Programmed" sheetId="6" r:id="rId2"/>
-    <sheet name="Todo Normal" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet original" sheetId="2" r:id="rId4"/>
-    <sheet name="Information" sheetId="3" r:id="rId5"/>
+    <sheet name="PV Scenario 1" sheetId="7" r:id="rId2"/>
+    <sheet name="PV Scenario 2" sheetId="8" r:id="rId3"/>
+    <sheet name="OPV Scenario 1" sheetId="10" r:id="rId4"/>
+    <sheet name="OPV Scenario 2" sheetId="9" r:id="rId5"/>
+    <sheet name="Programmed" sheetId="6" r:id="rId6"/>
+    <sheet name="Todo Normal" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet original" sheetId="2" r:id="rId8"/>
+    <sheet name="Information" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="152">
   <si>
     <t>LCOE</t>
   </si>
@@ -691,15 +694,26 @@
   <si>
     <t>Stowability Factor</t>
   </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -733,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +856,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -912,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,9 +1049,6 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,9 +1091,6 @@
     <xf numFmtId="43" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,7 +1112,19 @@
     <xf numFmtId="43" fontId="0" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1107,29 +1133,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1999,6 +2002,29 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2444,61 +2470,61 @@
     <tableColumn id="18" xr3:uid="{494C1471-6691-4211-A56A-5F0526C5E507}" name="Shape" dataDxfId="45" dataCellStyle="Comma"/>
     <tableColumn id="17" xr3:uid="{6B730EA3-58BC-43B2-AF0C-228600F472EC}" name="Mean" dataDxfId="44" dataCellStyle="Comma"/>
     <tableColumn id="10" xr3:uid="{3E063EC8-E411-4A51-8C7B-2719CB5A3934}" name="Comments" dataDxfId="43" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{7A3EDCE1-4AB4-4224-8393-929D39F2FAC8}" name="Column1" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{7A3EDCE1-4AB4-4224-8393-929D39F2FAC8}" name="Column1" dataDxfId="42" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F326949-71ED-40B7-AE74-7E320E4B5B3E}" name="Table142324" displayName="Table142324" ref="B3:S28" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F326949-71ED-40B7-AE74-7E320E4B5B3E}" name="Table142324" displayName="Table142324" ref="B3:S28" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="B3:S28" xr:uid="{1F326949-71ED-40B7-AE74-7E320E4B5B3E}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{14A49DDD-60ED-4EB4-AC3F-7320CDDB9D95}" name="Primary" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{8EFB05D5-9E89-43CD-A6B2-AFB74D12AA5A}" name="Secondary" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{1535E4D5-2ED0-493F-91D9-3078795E0C6B}" name="Tertiary" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{AD7A0704-D46D-44BD-949F-B1DFF21AB513}" name="Quaternary" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{8430B18C-09A1-4732-8A69-DFA462DC3CBE}" name="Quinary" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{F9F22517-9C4B-42ED-8E21-F00BF34E52FB}" name="Relationships" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{8A1A845A-4DB5-4228-9905-BBB4A29727F8}" name="Multiplied" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{4620B068-9086-4002-A7E6-627584E3E780}" name="Units" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{A066331F-8F28-49CD-9067-2AE42CB0A4DC}" name="Distribution" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{0298F369-D444-43C4-8432-A816B2EDB391}" name="Time for determination (Year)" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{1236584D-7F29-45D1-AB78-ACEB709FB91A}" name="Lower Limit" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{1954B7D3-F4C7-4A81-931C-3A4BC1FC017C}" name="Upper Limit" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{DA0A65C8-DAC7-4B61-B805-7FD7FB7AD3EC}" name="SD" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{0BD32A73-7ACE-49E7-B870-A638949E358D}" name="Scale" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{5B48C636-D4B6-42C6-ABF5-37F994028292}" name="Count" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{1321F270-1A1A-42F9-878A-9B37A5D9444E}" name="Shape" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{29128030-8042-40F2-AD4E-026413428875}" name="Mean" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{67B07120-E354-4B6A-AA0D-D108366BE5CC}" name="Comments" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{14A49DDD-60ED-4EB4-AC3F-7320CDDB9D95}" name="Primary" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{8EFB05D5-9E89-43CD-A6B2-AFB74D12AA5A}" name="Secondary" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{1535E4D5-2ED0-493F-91D9-3078795E0C6B}" name="Tertiary" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{AD7A0704-D46D-44BD-949F-B1DFF21AB513}" name="Quaternary" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{8430B18C-09A1-4732-8A69-DFA462DC3CBE}" name="Quinary" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{F9F22517-9C4B-42ED-8E21-F00BF34E52FB}" name="Relationships" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{8A1A845A-4DB5-4228-9905-BBB4A29727F8}" name="Multiplied" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{4620B068-9086-4002-A7E6-627584E3E780}" name="Units" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A066331F-8F28-49CD-9067-2AE42CB0A4DC}" name="Distribution" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{0298F369-D444-43C4-8432-A816B2EDB391}" name="Time for determination (Year)" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1236584D-7F29-45D1-AB78-ACEB709FB91A}" name="Lower Limit" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{1954B7D3-F4C7-4A81-931C-3A4BC1FC017C}" name="Upper Limit" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{DA0A65C8-DAC7-4B61-B805-7FD7FB7AD3EC}" name="SD" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{0BD32A73-7ACE-49E7-B870-A638949E358D}" name="Scale" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{5B48C636-D4B6-42C6-ABF5-37F994028292}" name="Count" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{1321F270-1A1A-42F9-878A-9B37A5D9444E}" name="Shape" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{29128030-8042-40F2-AD4E-026413428875}" name="Mean" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{67B07120-E354-4B6A-AA0D-D108366BE5CC}" name="Comments" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B08AEF9E-068D-41A3-8F97-8D12F6EF653C}" name="Table1423" displayName="Table1423" ref="B3:S27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B08AEF9E-068D-41A3-8F97-8D12F6EF653C}" name="Table1423" displayName="Table1423" ref="B3:S27" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B3:S27" xr:uid="{B08AEF9E-068D-41A3-8F97-8D12F6EF653C}"/>
   <tableColumns count="18">
-    <tableColumn id="2" xr3:uid="{369F9D63-7381-41DE-AF54-F61FEF03A055}" name="Primary" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{A508656A-BBD0-4725-8C30-906CCEF7AD73}" name="Secondary" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{2AB616BE-FCF5-42D2-92ED-6984504DD689}" name="Tertiary" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{52434BF0-87B9-49A6-89B5-358411B16EE7}" name="Quaternary" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{F2F64508-351A-4118-923C-04DF33C4BB18}" name="Quinary" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{BC6144CE-7929-4A4E-9441-EDC50DFE6922}" name="Relationships" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{727A3DF3-5FC4-42D3-8FA1-FEF1EBCF53E0}" name="Multiplied" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{C284C7FD-5580-4E7D-B408-0161A8B5E19F}" name="Units" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FDBF8740-5BA9-460E-9F8E-6E27BAB10B27}" name="Distribution" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{93EBFF29-EC92-40F1-A935-56C91E979DAB}" name="Time for determination (Year)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2115A830-BC7B-46BB-80E4-AF757613117E}" name="Lower Limit" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{6AF9E6A2-703C-43D6-89CD-C843176FB3CA}" name="Upper Limit" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{189E40B7-959A-4450-8478-76C30236A444}" name="SD" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F383F33D-34AD-4A2E-BEE4-D9F9654775BE}" name="Scale" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DE47C2C3-F36C-4B07-8C94-518CD3244245}" name="Count" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{90EC11DF-0AD4-41B8-B230-D22EBA3CBA4D}" name="Shape" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{A66F4D24-CA10-453B-AAD5-FAD84E3D4A0F}" name="Mean" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{F68E6CE9-8247-436E-90ED-50F7BD7D258E}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{369F9D63-7381-41DE-AF54-F61FEF03A055}" name="Primary" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{A508656A-BBD0-4725-8C30-906CCEF7AD73}" name="Secondary" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{2AB616BE-FCF5-42D2-92ED-6984504DD689}" name="Tertiary" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{52434BF0-87B9-49A6-89B5-358411B16EE7}" name="Quaternary" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{F2F64508-351A-4118-923C-04DF33C4BB18}" name="Quinary" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{BC6144CE-7929-4A4E-9441-EDC50DFE6922}" name="Relationships" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{727A3DF3-5FC4-42D3-8FA1-FEF1EBCF53E0}" name="Multiplied" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C284C7FD-5580-4E7D-B408-0161A8B5E19F}" name="Units" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FDBF8740-5BA9-460E-9F8E-6E27BAB10B27}" name="Distribution" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{93EBFF29-EC92-40F1-A935-56C91E979DAB}" name="Time for determination (Year)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2115A830-BC7B-46BB-80E4-AF757613117E}" name="Lower Limit" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{6AF9E6A2-703C-43D6-89CD-C843176FB3CA}" name="Upper Limit" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{189E40B7-959A-4450-8478-76C30236A444}" name="SD" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F383F33D-34AD-4A2E-BEE4-D9F9654775BE}" name="Scale" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DE47C2C3-F36C-4B07-8C94-518CD3244245}" name="Count" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{90EC11DF-0AD4-41B8-B230-D22EBA3CBA4D}" name="Shape" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{A66F4D24-CA10-453B-AAD5-FAD84E3D4A0F}" name="Mean" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{F68E6CE9-8247-436E-90ED-50F7BD7D258E}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2823,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E589DE-80F2-40C3-8572-2B4D91E364D4}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="J14" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -4101,128 +4127,4259 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BE8353-515E-4AA9-9C02-80594D610788}">
+  <dimension ref="A2:S37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>32028003.399618413</v>
+      </c>
+      <c r="Q5">
+        <v>213520022.66412276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>50.200632287803153</v>
+      </c>
+      <c r="Q6">
+        <v>334.67088191868771</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7">
+        <v>6400000</v>
+      </c>
+      <c r="Q7">
+        <v>64000000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>900000</v>
+      </c>
+      <c r="Q8">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>80070.008499046031</v>
+      </c>
+      <c r="Q9">
+        <v>533800.05666030687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>590</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="Q11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>125</v>
+      </c>
+      <c r="Q12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>26398.839165746085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>7.5760907039999992E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>365</v>
+      </c>
+      <c r="L18">
+        <v>366</v>
+      </c>
+      <c r="M18">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>365</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <v>0.08</v>
+      </c>
+      <c r="Q20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>19410911.151283886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>1004.0126457560631</v>
+      </c>
+      <c r="Q25">
+        <v>6693.417638373754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>12000000</v>
+      </c>
+      <c r="Q26">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>12000000</v>
+      </c>
+      <c r="Q27">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31">
+        <v>213520022.66412276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35">
+        <v>0.37880453519999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37">
+        <v>1.3600000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC8DD0-E469-4696-BE65-9653A993C761}">
+  <dimension ref="A2:S37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>16014001.699809207</v>
+      </c>
+      <c r="Q5">
+        <v>106760011.33206138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>25.100316143901576</v>
+      </c>
+      <c r="Q6">
+        <v>167.33544095934386</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7">
+        <v>6400000</v>
+      </c>
+      <c r="Q7">
+        <v>64000000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>900000</v>
+      </c>
+      <c r="Q8">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>40035.004249523015</v>
+      </c>
+      <c r="Q9">
+        <v>266900.02833015344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>590</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="Q11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>125</v>
+      </c>
+      <c r="Q12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>13199.419582873043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>0.15152181407999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>365</v>
+      </c>
+      <c r="L18">
+        <v>366</v>
+      </c>
+      <c r="M18">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>365</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <v>0.08</v>
+      </c>
+      <c r="Q20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>9705455.5756419431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>502.00632287803154</v>
+      </c>
+      <c r="Q25">
+        <v>3346.708819186877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>12000000</v>
+      </c>
+      <c r="Q26">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>12000000</v>
+      </c>
+      <c r="Q27">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31">
+        <v>106760011.33206138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35">
+        <v>0.37880453519999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37">
+        <v>1.3600000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE2CF3A-0F0C-4B1F-85F5-0856EF79378A}">
+  <dimension ref="A2:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>13102365.027116623</v>
+      </c>
+      <c r="Q5">
+        <v>87349100.18077749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>2.5353854690809672</v>
+      </c>
+      <c r="Q6">
+        <v>16.902569793873116</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7">
+        <v>6400000</v>
+      </c>
+      <c r="Q7">
+        <v>64000000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>600000</v>
+      </c>
+      <c r="Q8">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>7279.0916817314574</v>
+      </c>
+      <c r="Q9">
+        <v>48527.277878209716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>590</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>125</v>
+      </c>
+      <c r="Q12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>52797.67833149217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>3.7880453519999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>4.725E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>365</v>
+      </c>
+      <c r="L18">
+        <v>366</v>
+      </c>
+      <c r="M18">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>365</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <v>0.08</v>
+      </c>
+      <c r="Q20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>38821822.302567773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>50.707709381619345</v>
+      </c>
+      <c r="Q25">
+        <v>338.05139587746231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>12000000</v>
+      </c>
+      <c r="Q26">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>8000000</v>
+      </c>
+      <c r="Q27">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31">
+        <v>19410911.151283886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35">
+        <v>0.37880453519999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37">
+        <v>1.3600000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37547EC0-B9C0-4A39-8776-1EC8DC6527B5}">
+  <dimension ref="A2:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>4367455.0090388739</v>
+      </c>
+      <c r="Q5">
+        <v>29116366.726925828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>0.84512848969365573</v>
+      </c>
+      <c r="Q6">
+        <v>5.6341899312910382</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7">
+        <v>6400000</v>
+      </c>
+      <c r="Q7">
+        <v>64000000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>600000</v>
+      </c>
+      <c r="Q8">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>2426.3638939104858</v>
+      </c>
+      <c r="Q9">
+        <v>16175.759292736571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <v>590</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>125</v>
+      </c>
+      <c r="Q12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>17599.226110497388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>0.11364136055999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>4.725E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>365</v>
+      </c>
+      <c r="L18">
+        <v>366</v>
+      </c>
+      <c r="M18">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>365</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>0.04</v>
+      </c>
+      <c r="L20">
+        <v>0.08</v>
+      </c>
+      <c r="Q20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22">
+        <v>12940607.434189256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>16.902569793873113</v>
+      </c>
+      <c r="Q25">
+        <v>112.68379862582076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>12000000</v>
+      </c>
+      <c r="Q26">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>8000000</v>
+      </c>
+      <c r="Q27">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31">
+        <v>6470303.7170946281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35">
+        <v>0.37880453519999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37">
+        <v>1.3600000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED41947-6064-421B-A8F1-FB7DDB00A786}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="42"/>
-    <col min="2" max="6" width="24.5546875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="42" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="42"/>
-    <col min="13" max="13" width="14.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="42"/>
-    <col min="17" max="17" width="16" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.5546875" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="8.88671875" style="41"/>
+    <col min="2" max="6" width="24.5546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="41" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="41"/>
+    <col min="13" max="13" width="14.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="41"/>
+    <col min="17" max="17" width="16" style="41" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5546875" style="41" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="H2" s="42" t="str">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="H2" s="41" t="str">
         <f>Q28&amp;" "&amp;Q29</f>
-        <v>Scenario 1 PV</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
+        <v>Scenario 1 OPV</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="43" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48">
         <v>18</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>109</v>
       </c>
       <c r="K4" s="30"/>
@@ -4234,134 +8391,134 @@
       </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="50"/>
+      <c r="S4" s="49"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48">
         <v>18</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="39">
         <f>0.15*Table14232425[[#This Row],[Mean]]</f>
-        <v>32028003.399618413</v>
+        <v>13102365.027116623</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="39">
         <f>(Q23+Q24)*(0.05*Q22)</f>
-        <v>213520022.66412276</v>
-      </c>
-      <c r="R5" s="49"/>
+        <v>87349100.18077749</v>
+      </c>
+      <c r="R5" s="48"/>
       <c r="S5" s="30"/>
     </row>
     <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="A6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="49">
-        <v>1</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="48">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
       <c r="M6" s="39">
         <f>0.15*Table14232425[[#This Row],[Mean]]</f>
-        <v>50.200632287803153</v>
+        <v>2.5353854690809672</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="39">
         <f>0.05*Q25</f>
-        <v>334.67088191868771</v>
-      </c>
-      <c r="R6" s="49" t="s">
+        <v>16.902569793873116</v>
+      </c>
+      <c r="R6" s="48" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="49">
-        <v>1</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="48" t="s">
         <v>109</v>
       </c>
       <c r="K7" s="30"/>
@@ -4377,115 +8534,122 @@
         <f>Q26*0.8</f>
         <v>64000000</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="48" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="53">
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="52">
         <f>0.15*Table14232425[[#This Row],[Mean]]</f>
-        <v>900000</v>
-      </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="53">
+        <v>600000</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="52">
         <f>0.05*Q27</f>
-        <v>6000000</v>
-      </c>
-      <c r="R8" s="52"/>
+        <v>4000000</v>
+      </c>
+      <c r="R8" s="51"/>
       <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="A9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
         <v>2</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="48" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="39">
         <f>0.15*Table14232425[[#This Row],[Mean]]</f>
-        <v>320280</v>
+        <v>7279.0916817314574</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="36">
-        <v>2135200</v>
-      </c>
-      <c r="R9" s="49"/>
+      <c r="Q9" s="39">
+        <f>Q33*Q31</f>
+        <v>48527.277878209716</v>
+      </c>
+      <c r="R9" s="48"/>
       <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
         <v>2</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="30"/>
@@ -4499,76 +8663,77 @@
       <c r="Q10" s="26">
         <v>590</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="48" t="s">
         <v>114</v>
       </c>
       <c r="S10" s="30"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
         <v>3</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="39">
         <f>0.1*Table14232425[[#This Row],[Mean]]</f>
-        <v>9.6000000000000009E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="55">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="R11" s="49"/>
+      <c r="Q11" s="65">
+        <f>IF(Q29="PV",0.096,IF(Q29="OPV",0.016,"Choose Technology"))</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="R11" s="48"/>
       <c r="S11" s="30"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K12" s="30"/>
@@ -4582,32 +8747,32 @@
       <c r="Q12" s="37">
         <v>1250</v>
       </c>
-      <c r="R12" s="49"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48">
         <v>3</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="30"/>
@@ -4621,38 +8786,38 @@
       <c r="Q13" s="37">
         <v>150</v>
       </c>
-      <c r="R13" s="49" t="s">
+      <c r="R13" s="48" t="s">
         <v>35</v>
       </c>
       <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="A14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49">
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
         <v>4</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="30"/>
@@ -4663,36 +8828,36 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="39">
         <f>Q36/Q15</f>
-        <v>26398.839165746085</v>
-      </c>
-      <c r="R14" s="49"/>
+        <v>52797.67833149217</v>
+      </c>
+      <c r="R14" s="48"/>
       <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="56" t="s">
+      <c r="A15" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="30"/>
@@ -4703,122 +8868,125 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="39">
         <f>Q34*Q35</f>
-        <v>7.5760907039999992E-2</v>
-      </c>
-      <c r="R15" s="49"/>
+        <v>3.7880453519999996E-2</v>
+      </c>
+      <c r="R15" s="48"/>
       <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="56" t="s">
+      <c r="A16" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48">
         <v>4</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
-      <c r="M16" s="36">
-        <v>2.3999999999999998E-3</v>
+      <c r="M16" s="64">
+        <f>(IF(Q29="PV",0.2,IF(Q29="OPV",0.35,"Choose Technology")))*Table14232425[[#This Row],[Mean]]</f>
+        <v>4.725E-3</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="36">
-        <v>1.2E-2</v>
-      </c>
-      <c r="R16" s="49"/>
+      <c r="Q16" s="39">
+        <f>IF(Q29="PV",0.012,IF(Q29="OPV",0.0135,"Choose Technology"))</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="R16" s="48"/>
       <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
-      <c r="M17" s="36">
-        <v>0.01</v>
+      <c r="M17" s="39">
+        <f>Table14232425[[#This Row],[Mean]]*0.1</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="36">
+      <c r="Q17" s="63">
         <v>0.06</v>
       </c>
-      <c r="R17" s="49"/>
+      <c r="R17" s="48"/>
       <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="56" t="s">
+      <c r="A18" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48">
         <v>4</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="26">
@@ -4836,38 +9004,38 @@
       <c r="Q18" s="26">
         <v>365</v>
       </c>
-      <c r="R18" s="49" t="s">
+      <c r="R18" s="48" t="s">
         <v>41</v>
       </c>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="56" t="s">
+      <c r="A19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49">
+      <c r="F19" s="47"/>
+      <c r="G19" s="48">
         <v>4</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="30"/>
@@ -4879,30 +9047,30 @@
       <c r="Q19" s="26">
         <v>24</v>
       </c>
-      <c r="R19" s="49"/>
+      <c r="R19" s="48"/>
       <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="26">
@@ -4915,33 +9083,33 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="55">
+      <c r="Q20" s="37">
         <v>0.06</v>
       </c>
-      <c r="R20" s="49"/>
+      <c r="R20" s="48"/>
       <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="48" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="30"/>
@@ -4953,36 +9121,36 @@
       <c r="Q21" s="26">
         <v>20</v>
       </c>
-      <c r="R21" s="49"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="A22" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48">
         <v>5</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="30"/>
@@ -4993,165 +9161,169 @@
       <c r="P22" s="30"/>
       <c r="Q22" s="39">
         <f>(Q36/(Q15*Q37))</f>
-        <v>19410911.151283886</v>
-      </c>
-      <c r="R22" s="49"/>
+        <v>38821822.302567773</v>
+      </c>
+      <c r="R22" s="48"/>
       <c r="S22" s="30"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49">
+      <c r="F23" s="47"/>
+      <c r="G23" s="48">
         <v>5</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
-      <c r="M23" s="55">
-        <v>18</v>
-      </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="55">
-        <v>120</v>
-      </c>
-      <c r="R23" s="49"/>
+      <c r="M23" s="39">
+        <f>Table14232425[[#This Row],[Mean]]*0.1</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39">
+        <f>IF(Q29="PV",120,IF(Q29="OPV",30,"Choose Technology"))</f>
+        <v>30</v>
+      </c>
+      <c r="R23" s="48"/>
       <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="57" t="s">
+      <c r="A24" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49">
+      <c r="F24" s="47"/>
+      <c r="G24" s="48">
         <v>5</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="55">
-        <v>20</v>
-      </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="55">
-        <v>100</v>
-      </c>
-      <c r="R24" s="49"/>
+      <c r="M24" s="39">
+        <f>Table14232425[[#This Row],[Mean]]*0.2</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39">
+        <f>IF(Q29="PV",100,IF(Q29="OPV",15,"Choose Technology"))</f>
+        <v>15</v>
+      </c>
+      <c r="R24" s="48"/>
       <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49">
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48">
         <v>7</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="39">
         <f>Table14232425[[#This Row],[Mean]]*0.15</f>
-        <v>1004.0126457560631</v>
+        <v>50.707709381619345</v>
       </c>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="39">
         <f>Q31/(63800*Q32)</f>
-        <v>6693.417638373754</v>
-      </c>
-      <c r="R25" s="49"/>
+        <v>338.05139587746231</v>
+      </c>
+      <c r="R25" s="48"/>
       <c r="S25" s="30"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48">
         <v>7</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="48" t="s">
         <v>40</v>
       </c>
       <c r="K26" s="30"/>
@@ -5166,340 +9338,340 @@
       <c r="Q26" s="37">
         <v>80000000</v>
       </c>
-      <c r="R26" s="49"/>
+      <c r="R26" s="48"/>
       <c r="S26" s="30"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="48" t="s">
+      <c r="A27" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41">
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40">
         <f>Table14232425[[#This Row],[Mean]]*0.1</f>
-        <v>12000000</v>
+        <v>8000000</v>
       </c>
       <c r="N27" s="30"/>
-      <c r="O27" s="41"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="53">
+      <c r="Q27" s="52">
         <f>IF(Q29="PV",120000000,IF(Q29="OPV",80000000,"Choose a technology"))</f>
-        <v>120000000</v>
-      </c>
-      <c r="R27" s="52"/>
+        <v>80000000</v>
+      </c>
+      <c r="R27" s="51"/>
       <c r="S27" s="30"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52" t="s">
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
       <c r="Q28" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="R28" s="52"/>
+      <c r="R28" s="51"/>
       <c r="S28" s="30"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
       <c r="Q29" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="R29" s="52"/>
+        <v>150</v>
+      </c>
+      <c r="R29" s="51"/>
       <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="53">
+      <c r="J30" s="51"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="52">
         <f>IF(Q29="PV",11,IF(Q29="OPV",0.5,"Choose Technology"))</f>
-        <v>11</v>
-      </c>
-      <c r="R30" s="52"/>
-      <c r="S30" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="R30" s="51"/>
+      <c r="S30" s="40"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41">
+      <c r="J31" s="51"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40">
         <f>Q30*Q22</f>
-        <v>213520022.66412276</v>
-      </c>
-      <c r="R31" s="52"/>
-      <c r="S31" s="41"/>
+        <v>19410911.151283886</v>
+      </c>
+      <c r="R31" s="51"/>
+      <c r="S31" s="40"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="60" t="s">
+      <c r="B32" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40">
         <f>IF(Q29="PV",0.5,IF(Q29="OPV",0.9,"Choose a technology"))</f>
-        <v>0.5</v>
-      </c>
-      <c r="R32" s="52"/>
-      <c r="S32" s="41"/>
+        <v>0.9</v>
+      </c>
+      <c r="R32" s="51"/>
+      <c r="S32" s="40"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="63">
+      <c r="J33" s="51"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="61">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="R33" s="52"/>
+      <c r="R33" s="51"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52" t="s">
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="53">
+      <c r="J34" s="51"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="52">
         <f>VLOOKUP(H2,Information!B81:C84,2,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="R34" s="52"/>
+        <v>0.1</v>
+      </c>
+      <c r="R34" s="51"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52" t="s">
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="62">
+      <c r="J35" s="51"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="60">
         <f>0.9*0.7*0.98*0.95*0.78*0.9*0.92</f>
         <v>0.37880453519999996</v>
       </c>
-      <c r="R35" s="52"/>
+      <c r="R35" s="51"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52" t="s">
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="62">
+      <c r="J36" s="51"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="60">
         <v>2000</v>
       </c>
-      <c r="R36" s="52"/>
+      <c r="R36" s="51"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="62">
+      <c r="J37" s="51"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="60">
         <f>1360/1000000</f>
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="R37" s="52"/>
+      <c r="R37" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5517,7 +9689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF9550-DE06-495F-B55A-C122C7BE7828}">
   <dimension ref="A2:S28"/>
   <sheetViews>
@@ -6663,7 +10835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14302A7-C5E8-40FF-86F2-64C01806B27A}">
   <dimension ref="A2:S27"/>
   <sheetViews>
@@ -7773,7 +11945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE578F6-6E39-4770-8022-A43862711695}">
   <dimension ref="B2:G84"/>
   <sheetViews>
@@ -7792,10 +11964,10 @@
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">

--- a/data/LCOE_Parameters.xlsb.xlsx
+++ b/data/LCOE_Parameters.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanko\Desktop\personal\coding\OPV_SBSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6AC944-5010-4D18-823D-CA8BD7F91FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32311F31-6451-43C4-9070-60F2C18F483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -1115,9 +1115,6 @@
     <xf numFmtId="165" fontId="0" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,6 +1123,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6194,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE2CF3A-0F0C-4B1F-85F5-0856EF79378A}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8704,7 +8704,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="65">
+      <c r="Q11" s="64">
         <f>IF(Q29="PV",0.096,IF(Q29="OPV",0.016,"Choose Technology"))</f>
         <v>1.6E-2</v>
       </c>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
-      <c r="M16" s="64">
+      <c r="M16" s="63">
         <f>(IF(Q29="PV",0.2,IF(Q29="OPV",0.35,"Choose Technology")))*Table14232425[[#This Row],[Mean]]</f>
         <v>4.725E-3</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
-      <c r="Q17" s="63">
+      <c r="Q17" s="62">
         <v>0.06</v>
       </c>
       <c r="R17" s="48"/>
@@ -11964,10 +11964,10 @@
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">

--- a/data/LCOE_Parameters.xlsb.xlsx
+++ b/data/LCOE_Parameters.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanko\Desktop\personal\coding\OPV_SBSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32311F31-6451-43C4-9070-60F2C18F483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDF0BB6-0A59-4AD3-A3CC-1725579C7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5EE87DF2-9FC5-4DDF-A454-2AABC6FB7A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="152">
   <si>
     <t>LCOE</t>
   </si>
@@ -4130,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BE8353-515E-4AA9-9C02-80594D610788}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -6194,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE2CF3A-0F0C-4B1F-85F5-0856EF79378A}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6862,9 +6862,6 @@
       </c>
       <c r="I21" t="s">
         <v>106</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
       </c>
       <c r="Q21">
         <v>20</v>
